--- a/classfiers/mega/knn/smote/mega-knn-smote-results.xlsx
+++ b/classfiers/mega/knn/smote/mega-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7829787234042553</v>
+        <v>0.8401826484018264</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9945945945945946</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8761904761904763</v>
+        <v>0.908641975308642</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8908546384222059</v>
+        <v>0.967120476355648</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9533678756476683</v>
+        <v>0.9945652173913043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9945945945945946</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9735449735449736</v>
+        <v>0.9891891891891892</v>
       </c>
       <c r="E3" t="n">
-        <v>0.994200146092038</v>
+        <v>0.9972251127297953</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9945945945945946</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9919137466307278</v>
+        <v>0.9840425531914894</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9944923301680059</v>
+        <v>0.9944068678459939</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9783783783783784</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9890710382513661</v>
+        <v>0.9973045822102425</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9945945945945946</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9945652173913043</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9891891891891892</v>
+        <v>0.9837837837837838</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9918699186991871</v>
+        <v>0.9918256130790191</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9972388604821038</v>
+        <v>0.9999273467015403</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.944031825654237</v>
+        <v>0.9616864152638893</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9902702702702703</v>
+        <v>0.9892298750363266</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9645180306633462</v>
+        <v>0.9742007825957163</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9742761139517897</v>
+        <v>0.9917359607265954</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/mega/knn/smote/mega-knn-smote-results.xlsx
+++ b/classfiers/mega/knn/smote/mega-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8401826484018264</v>
+        <v>0.8477157360406091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="D2" t="n">
-        <v>0.908641975308642</v>
+        <v>0.9125683060109289</v>
       </c>
       <c r="E2" t="n">
-        <v>0.967120476355648</v>
+        <v>0.9668604040474773</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9945652173913043</v>
+        <v>0.9939759036144579</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9838709677419355</v>
+        <v>0.9763313609467456</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9891891891891892</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9972251127297953</v>
+        <v>0.9969188753895172</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.976878612716763</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9946236559139785</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9840425531914894</v>
+        <v>0.9883040935672515</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9944068678459939</v>
+        <v>0.9969363817793495</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9946236559139785</v>
+        <v>0.9763313609467456</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9973045822102425</v>
+        <v>0.9880239520958084</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9970414201183432</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9837837837837838</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9918256130790191</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999273467015403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9616864152638893</v>
+        <v>0.9637140504743661</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9892298750363266</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9742007825957163</v>
+        <v>0.974794195707932</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9917359607265954</v>
+        <v>0.9915514162669374</v>
       </c>
     </row>
   </sheetData>
